--- a/GANTT.xlsx
+++ b/GANTT.xlsx
@@ -976,7 +976,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1299,9 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
